--- a/CurriculumManagementSystemWebAPI/QuizTemplate.xlsx
+++ b/CurriculumManagementSystemWebAPI/QuizTemplate.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB09CC64-2C39-4DC3-BF5A-8ACEA4CD419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F193A-E35C-4CC6-93AC-A326754054D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quiz 1" sheetId="1" r:id="rId1"/>
+    <sheet name="{{quiz.quiz_name}}" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -497,7 +497,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CurriculumManagementSystemWebAPI/QuizTemplate.xlsx
+++ b/CurriculumManagementSystemWebAPI/QuizTemplate.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F193A-E35C-4CC6-93AC-A326754054D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="{{quiz.quiz_name}}" sheetId="1" r:id="rId1"/>
+    <sheet name="quiz" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -53,25 +52,25 @@
     <t>{{question.question_name}}</t>
   </si>
   <si>
-    <t>{{question.answers_1}}</t>
-  </si>
-  <si>
-    <t>{{question.answers_2}}</t>
-  </si>
-  <si>
-    <t>{{question.answers_3}}</t>
-  </si>
-  <si>
-    <t>{{question.answers_4}}</t>
-  </si>
-  <si>
     <t>{{question.correct_answer}}</t>
+  </si>
+  <si>
+    <t>{{question.answers_A}}</t>
+  </si>
+  <si>
+    <t>{{question.answers_B}}</t>
+  </si>
+  <si>
+    <t>{{question.answers_C}}</t>
+  </si>
+  <si>
+    <t>{{question.answers_D}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,23 +492,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="65.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="65.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -537,49 +536,49 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
